--- a/currentbuild/StructureDefinition-Norsk-Navn.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Navn.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:49:50+00:00</t>
+    <t>2025-03-12T15:55:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Navn.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Navn.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T15:55:13+00:00</t>
+    <t>2025-03-13T07:41:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Navn.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Navn.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:41:16+00:00</t>
+    <t>2025-03-13T07:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Navn.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Navn.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-13T07:44:38+00:00</t>
+    <t>2025-03-17T07:22:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-Norsk-Navn.xlsx
+++ b/currentbuild/StructureDefinition-Norsk-Navn.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-17T07:22:22+00:00</t>
+    <t>2025-03-17T12:25:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
